--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo2</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Rspo2</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,40 +546,40 @@
         <v>0.504421</v>
       </c>
       <c r="I2">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6233136666666667</v>
+        <v>0.184159</v>
       </c>
       <c r="N2">
-        <v>1.869941</v>
+        <v>0.5524770000000001</v>
       </c>
       <c r="O2">
-        <v>0.1671957790227948</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="P2">
-        <v>0.1671957790227948</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="Q2">
-        <v>0.1048041676845556</v>
+        <v>0.03096455564633334</v>
       </c>
       <c r="R2">
-        <v>0.9432375091609999</v>
+        <v>0.278681000817</v>
       </c>
       <c r="S2">
-        <v>0.08830541928783311</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="T2">
-        <v>0.08830541928783311</v>
+        <v>0.1331158254681294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,40 +608,40 @@
         <v>0.504421</v>
       </c>
       <c r="I3">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.190009</v>
+        <v>0.6233136666666667</v>
       </c>
       <c r="N3">
-        <v>0.570027</v>
+        <v>1.869941</v>
       </c>
       <c r="O3">
-        <v>0.05096744139468926</v>
+        <v>0.4505504116763221</v>
       </c>
       <c r="P3">
-        <v>0.05096744139468926</v>
+        <v>0.450550411676322</v>
       </c>
       <c r="Q3">
-        <v>0.03194817659633333</v>
+        <v>0.1048041676845556</v>
       </c>
       <c r="R3">
-        <v>0.287533589367</v>
+        <v>0.9432375091609999</v>
       </c>
       <c r="S3">
-        <v>0.02691874943668578</v>
+        <v>0.4505504116763221</v>
       </c>
       <c r="T3">
-        <v>0.02691874943668578</v>
+        <v>0.450550411676322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,40 +670,40 @@
         <v>0.504421</v>
       </c>
       <c r="I4">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.892005</v>
+        <v>0.064319</v>
       </c>
       <c r="N4">
-        <v>8.676015</v>
+        <v>0.192957</v>
       </c>
       <c r="O4">
-        <v>0.7757427035069303</v>
+        <v>0.04649176406412185</v>
       </c>
       <c r="P4">
-        <v>0.7757427035069303</v>
+        <v>0.04649176406412184</v>
       </c>
       <c r="Q4">
-        <v>0.4862626847016666</v>
+        <v>0.01081461809966667</v>
       </c>
       <c r="R4">
-        <v>4.376364162315</v>
+        <v>0.097331562897</v>
       </c>
       <c r="S4">
-        <v>0.4097130028821921</v>
+        <v>0.04649176406412185</v>
       </c>
       <c r="T4">
-        <v>0.4097130028821921</v>
+        <v>0.04649176406412184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,288 +732,102 @@
         <v>0.504421</v>
       </c>
       <c r="I5">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.022719</v>
+        <v>0.4910533333333333</v>
       </c>
       <c r="N5">
-        <v>0.06815700000000001</v>
+        <v>1.47316</v>
       </c>
       <c r="O5">
-        <v>0.006094076075585608</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="P5">
-        <v>0.006094076075585608</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="Q5">
-        <v>0.003819980233000001</v>
+        <v>0.08256587115111111</v>
       </c>
       <c r="R5">
-        <v>0.034379822097</v>
+        <v>0.74309284036</v>
       </c>
       <c r="S5">
-        <v>0.003218621583462175</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="T5">
-        <v>0.003218621583462175</v>
+        <v>0.3549485488927676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1681403333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.504421</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.1502133333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.45064</v>
-      </c>
-      <c r="I6">
-        <v>0.4718442068098269</v>
-      </c>
-      <c r="J6">
-        <v>0.4718442068098268</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.6233136666666667</v>
+        <v>0.02060433333333333</v>
       </c>
       <c r="N6">
-        <v>1.869941</v>
+        <v>0.061813</v>
       </c>
       <c r="O6">
-        <v>0.1671957790227948</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="P6">
-        <v>0.1671957790227948</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="Q6">
-        <v>0.09363002358222222</v>
+        <v>0.003464419474777778</v>
       </c>
       <c r="R6">
-        <v>0.8426702122399999</v>
+        <v>0.031179775273</v>
       </c>
       <c r="S6">
-        <v>0.0788903597349617</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="T6">
-        <v>0.07889035973496168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1502133333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.45064</v>
-      </c>
-      <c r="I7">
-        <v>0.4718442068098269</v>
-      </c>
-      <c r="J7">
-        <v>0.4718442068098268</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.190009</v>
-      </c>
-      <c r="N7">
-        <v>0.570027</v>
-      </c>
-      <c r="O7">
-        <v>0.05096744139468926</v>
-      </c>
-      <c r="P7">
-        <v>0.05096744139468926</v>
-      </c>
-      <c r="Q7">
-        <v>0.02854188525333333</v>
-      </c>
-      <c r="R7">
-        <v>0.25687696728</v>
-      </c>
-      <c r="S7">
-        <v>0.02404869195800349</v>
-      </c>
-      <c r="T7">
-        <v>0.02404869195800349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1502133333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.45064</v>
-      </c>
-      <c r="I8">
-        <v>0.4718442068098269</v>
-      </c>
-      <c r="J8">
-        <v>0.4718442068098268</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.892005</v>
-      </c>
-      <c r="N8">
-        <v>8.676015</v>
-      </c>
-      <c r="O8">
-        <v>0.7757427035069303</v>
-      </c>
-      <c r="P8">
-        <v>0.7757427035069303</v>
-      </c>
-      <c r="Q8">
-        <v>0.4344177110666667</v>
-      </c>
-      <c r="R8">
-        <v>3.9097593996</v>
-      </c>
-      <c r="S8">
-        <v>0.3660297006247382</v>
-      </c>
-      <c r="T8">
-        <v>0.3660297006247382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1502133333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.45064</v>
-      </c>
-      <c r="I9">
-        <v>0.4718442068098269</v>
-      </c>
-      <c r="J9">
-        <v>0.4718442068098268</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.022719</v>
-      </c>
-      <c r="N9">
-        <v>0.06815700000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="P9">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="Q9">
-        <v>0.00341269672</v>
-      </c>
-      <c r="R9">
-        <v>0.03071427048</v>
-      </c>
-      <c r="S9">
-        <v>0.002875454492123434</v>
-      </c>
-      <c r="T9">
-        <v>0.002875454492123433</v>
+        <v>0.0148934498986591</v>
       </c>
     </row>
   </sheetData>
